--- a/regret_repair_t_e/energy_time_table2.xlsx
+++ b/regret_repair_t_e/energy_time_table2.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>132.742</v>
+        <v>1863.699678899083</v>
       </c>
       <c r="C2" t="n">
-        <v>107.61325</v>
+        <v>178.5552752293578</v>
       </c>
     </row>
     <row r="3">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.05</v>
+        <v>109.11</v>
       </c>
       <c r="C3" t="n">
         <v>87.06</v>
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>224.037966</v>
+        <v>141213147.5288572</v>
       </c>
       <c r="C4" t="n">
-        <v>173.5812219375</v>
+        <v>5785.657501988469</v>
       </c>
     </row>
   </sheetData>
